--- a/cutoff_specified_video_part/test_short.xlsx
+++ b/cutoff_specified_video_part/test_short.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>视频路径和名称</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>D:\not_system_programfiles\video-subtitle-remover\test_cutoff\test6.mp4</t>
+  </si>
+  <si>
+    <t>D:\not_system_programfiles\video-subtitle-remover\test_cutoff\test7.mp4</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1061,6 +1064,14 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
